--- a/testdata/tasks.xlsx
+++ b/testdata/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goran/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0D8E0-8F89-2A4E-9CD1-B6481F2C05F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FFE00D-1D5C-C846-A743-E6F683EFD766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="35840" windowHeight="14420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-52000" yWindow="800" windowWidth="35840" windowHeight="14420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ctrl-Q task import 1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="132">
   <si>
     <t>Task counter</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>newapp-3</t>
-  </si>
-  <si>
-    <t>C:/tools/ctrl-q/testdata/</t>
   </si>
   <si>
     <t>When task A successful</t>
@@ -2372,7 +2369,7 @@
         <v>80</v>
       </c>
       <c r="AL13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AM13" t="s">
         <v>87</v>
@@ -2491,7 +2488,7 @@
         <v>80</v>
       </c>
       <c r="AL14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM14" t="s">
         <v>88</v>
@@ -2507,9 +2504,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2549,13 +2546,13 @@
         <v>105</v>
       </c>
       <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" t="s">
-        <v>126</v>
-      </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2581,18 +2578,18 @@
         <v>118</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" t="s">
         <v>127</v>
       </c>
-      <c r="I2" t="s">
-        <v>128</v>
-      </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2603,7 +2600,7 @@
         <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
         <v>111</v>
@@ -2619,10 +2616,10 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2645,13 +2642,13 @@
         <v>113</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" t="s">
         <v>127</v>
       </c>
-      <c r="I5" t="s">
-        <v>128</v>
-      </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/tasks.xlsx
+++ b/testdata/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goran/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FFE00D-1D5C-C846-A743-E6F683EFD766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF65EC-4385-3140-B4D3-EB95A834805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52000" yWindow="800" windowWidth="35840" windowHeight="14420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-52000" yWindow="800" windowWidth="39320" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ctrl-Q task import 1" sheetId="4" r:id="rId1"/>
@@ -804,11 +804,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,9 +821,7 @@
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.5" customWidth="1"/>
     <col min="17" max="17" width="26.5" customWidth="1"/>
-    <col min="22" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="35" width="10.83203125" customWidth="1"/>
     <col min="38" max="38" width="21.6640625" customWidth="1"/>
     <col min="39" max="39" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2504,9 +2502,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/testdata/tasks.xlsx
+++ b/testdata/tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goran/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF65EC-4385-3140-B4D3-EB95A834805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107EF525-30E8-C14E-8DA7-04D5309F11A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52000" yWindow="800" windowWidth="39320" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2600" windowWidth="35840" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ctrl-Q task import 1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="137">
   <si>
     <t>Task counter</t>
   </si>
@@ -417,6 +417,21 @@
   </si>
   <si>
     <t>9143a1bf-abc3-46f4-8dcb-a1a0ea35860a</t>
+  </si>
+  <si>
+    <t>Publish options</t>
+  </si>
+  <si>
+    <t>delete-publish</t>
+  </si>
+  <si>
+    <t>publish-replace</t>
+  </si>
+  <si>
+    <t>publish-another</t>
+  </si>
+  <si>
+    <t>Reload task of App 1</t>
   </si>
 </sst>
 </file>
@@ -802,18 +817,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1908950-014B-5543-A83E-C294E0CD8CA9}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -953,10 +969,10 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
+        <v>136</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1185,97 +1201,97 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
+      <c r="F4">
+        <v>1440</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
+        <v>119</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
-      </c>
-      <c r="U4" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
+        <v>49</v>
       </c>
       <c r="V4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="Z4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="AA4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AB4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AC4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AD4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AE4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AF4" t="s">
         <v>49</v>
@@ -1307,94 +1323,94 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1440</v>
-      </c>
-      <c r="G5">
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" t="b">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5" t="s">
-        <v>49</v>
-      </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Y5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Z5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AA5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AB5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AC5" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AD5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AE5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AF5" t="s">
         <v>49</v>
@@ -1423,97 +1439,97 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1440</v>
-      </c>
-      <c r="G6">
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" t="s">
-        <v>49</v>
-      </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="X6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Y6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="Z6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AA6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AB6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AC6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AD6" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AE6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AF6" t="s">
         <v>49</v>
@@ -1542,16 +1558,16 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1560,7 +1576,7 @@
         <v>1440</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>120</v>
@@ -1569,28 +1585,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="Q7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
         <v>49</v>
@@ -1664,46 +1680,46 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1440</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
+        <v>121</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P8" t="s">
         <v>49</v>
@@ -1711,47 +1727,47 @@
       <c r="Q8" t="s">
         <v>49</v>
       </c>
-      <c r="R8">
-        <v>1</v>
+      <c r="R8" t="s">
+        <v>49</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T8" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" t="b">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="U8" t="s">
+        <v>49</v>
       </c>
       <c r="V8" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="X8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Y8" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="Z8" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="AA8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="AC8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AD8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AE8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AF8" t="s">
         <v>49</v>
@@ -1780,97 +1796,97 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
+        <v>90</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1440</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
+        <v>120</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="Q9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T9" t="s">
-        <v>96</v>
-      </c>
-      <c r="U9" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
+        <v>49</v>
       </c>
       <c r="V9" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="W9" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="X9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="Z9" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="AA9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AB9" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="AC9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AD9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AE9" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AF9" t="s">
         <v>49</v>
@@ -1899,7 +1915,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -1950,16 +1966,16 @@
         <v>49</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="T10" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="U10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
         <v>94</v>
@@ -1971,37 +1987,37 @@
         <v>54</v>
       </c>
       <c r="Y10" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="Z10" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AB10" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AD10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AE10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>360</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>49</v>
       </c>
       <c r="AJ10" t="s">
         <v>49</v>
@@ -2018,7 +2034,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -2069,46 +2085,46 @@
         <v>49</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T11" t="s">
-        <v>49</v>
-      </c>
-      <c r="U11" t="s">
-        <v>49</v>
+        <v>96</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="W11" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="X11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Y11" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="Z11" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="AA11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AB11" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AC11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AD11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AE11" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AF11" t="s">
         <v>49</v>
@@ -2122,22 +2138,22 @@
       <c r="AI11" t="s">
         <v>49</v>
       </c>
-      <c r="AJ11">
-        <v>1</v>
+      <c r="AJ11" t="s">
+        <v>49</v>
       </c>
       <c r="AK11" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AL11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM11">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -2191,22 +2207,22 @@
         <v>3</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s">
-        <v>49</v>
-      </c>
-      <c r="U12" t="s">
-        <v>49</v>
+        <v>100</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="W12" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="X12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Y12" t="s">
         <v>49</v>
@@ -2229,34 +2245,34 @@
       <c r="AE12" t="s">
         <v>49</v>
       </c>
-      <c r="AF12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ12">
-        <v>2</v>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>360</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>49</v>
       </c>
       <c r="AK12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AL12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM12">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -2361,21 +2377,21 @@
         <v>49</v>
       </c>
       <c r="AJ13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="s">
         <v>80</v>
       </c>
       <c r="AL13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>87</v>
+        <v>40</v>
+      </c>
+      <c r="AM13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -2480,15 +2496,253 @@
         <v>49</v>
       </c>
       <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15" t="s">
+        <v>49</v>
+      </c>
+      <c r="X15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16" t="s">
+        <v>49</v>
+      </c>
+      <c r="X16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ16">
         <v>4</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AK16" t="s">
         <v>80</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AL16" t="s">
         <v>123</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AM16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2500,11 +2754,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB302AA-7244-6143-A82A-1F338369BBC6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2519,9 +2773,10 @@
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -2552,28 +2807,31 @@
       <c r="J1" t="s">
         <v>128</v>
       </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>126</v>
@@ -2582,70 +2840,225 @@
         <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H3" s="1" t="s">
-        <v>126</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I4" t="s">
         <v>127</v>
       </c>
       <c r="J4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H9" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>108</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
         <v>109</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D11" t="s">
         <v>112</v>
       </c>
-      <c r="E5" t="b">
+      <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F11" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I11" t="s">
         <v>127</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J11" t="s">
         <v>131</v>
       </c>
     </row>

--- a/testdata/tasks.xlsx
+++ b/testdata/tasks.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goran/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107EF525-30E8-C14E-8DA7-04D5309F11A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D2C596-0BAC-4341-8506-2D54B983541C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2600" windowWidth="35840" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-74360" yWindow="-16280" windowWidth="66800" windowHeight="34460" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ctrl-Q task import 1" sheetId="4" r:id="rId1"/>
-    <sheet name="App import" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
+    <sheet name="Ctrl-Q task import 1" sheetId="4" r:id="rId2"/>
+    <sheet name="App import" sheetId="2" r:id="rId3"/>
+    <sheet name="1" sheetId="5" r:id="rId4"/>
+    <sheet name="2" sheetId="6" r:id="rId5"/>
+    <sheet name="3" sheetId="7" r:id="rId6"/>
+    <sheet name="4" sheetId="8" r:id="rId7"/>
+    <sheet name="5" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="149">
   <si>
     <t>Task counter</t>
   </si>
@@ -432,6 +438,42 @@
   </si>
   <si>
     <t>Reload task of App 1</t>
+  </si>
+  <si>
+    <t>3d711d07-c133-48f7-ab26-8350c5b8fe2e</t>
+  </si>
+  <si>
+    <t>When reload task A successful</t>
+  </si>
+  <si>
+    <t>When reload task B successful</t>
+  </si>
+  <si>
+    <t>When ext pgm task succeed</t>
+  </si>
+  <si>
+    <t>4ce41cf3-bc6a-4f66-ad00-ffdeb9a7e468</t>
+  </si>
+  <si>
+    <t>2933711d-6638-41d4-a2d2-6dd2d965208b</t>
+  </si>
+  <si>
+    <t>4716f284-7790-45c3-a0a5-154c898766a0</t>
+  </si>
+  <si>
+    <t>newtask-2</t>
+  </si>
+  <si>
+    <t>newtask-1</t>
+  </si>
+  <si>
+    <t>newtask-3</t>
+  </si>
+  <si>
+    <t>When ext pgm task done</t>
+  </si>
+  <si>
+    <t>64adb77b-7a14-43c3-b4e0-50f65fffb6e8</t>
   </si>
 </sst>
 </file>
@@ -815,6 +857,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD0D760-10FF-BA4F-AB26-1BB266CCEB6A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1908950-014B-5543-A83E-C294E0CD8CA9}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AM16"/>
@@ -823,13 +877,13 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -2748,15 +2802,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Noto IKEA Latin"&amp;8&amp;K5A5A5A Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB302AA-7244-6143-A82A-1F338369BBC6}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -2774,6 +2831,7 @@
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3064,5 +3122,6706 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Noto IKEA Latin"&amp;8&amp;K5A5A5A Internal</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B3D623-F84A-2E4B-97AC-9C3D405A1CC3}">
+  <dimension ref="A1:AM7"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="26.5" customWidth="1"/>
+    <col min="22" max="35" width="10.83203125" customWidth="1"/>
+    <col min="38" max="38" width="21.6640625" customWidth="1"/>
+    <col min="39" max="39" width="35.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1440</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>360</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6">
+        <v>3</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7">
+        <v>4</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Noto IKEA Latin"&amp;8&amp;K5A5A5A Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB65219D-BA26-3A45-BDDD-F865E7A32AFB}">
+  <dimension ref="A1:AM8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="26.5" customWidth="1"/>
+    <col min="22" max="35" width="10.83203125" customWidth="1"/>
+    <col min="37" max="37" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="35.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1440</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>360</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="AJ8">
+        <v>3</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Noto IKEA Latin"&amp;8&amp;K5A5A5A Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFFD7D0-6C13-E947-A31C-CAB830B654CA}">
+  <dimension ref="A1:AM10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="26.5" customWidth="1"/>
+    <col min="22" max="35" width="10.83203125" customWidth="1"/>
+    <col min="37" max="37" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="35.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1440</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>360</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="AJ8">
+        <v>3</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1440</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>94</v>
+      </c>
+      <c r="W10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Noto IKEA Latin"&amp;8&amp;K5A5A5A Internal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F300BD48-681D-124A-9603-205FB7A8DFED}">
+  <dimension ref="A1:AM16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1440</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1440</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1440</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1440</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1440</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>94</v>
+      </c>
+      <c r="W10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" t="s">
+        <v>94</v>
+      </c>
+      <c r="X11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>360</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15" t="s">
+        <v>49</v>
+      </c>
+      <c r="X15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16" t="s">
+        <v>49</v>
+      </c>
+      <c r="X16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ16">
+        <v>4</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CF1CBD-824B-6B48-8B71-18CE0CEDD925}">
+  <dimension ref="A1:AM17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AP21" sqref="AP21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="37" max="37" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1440</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1440</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1440</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1440</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1440</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>94</v>
+      </c>
+      <c r="W10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" t="s">
+        <v>94</v>
+      </c>
+      <c r="X11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>360</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15" t="s">
+        <v>49</v>
+      </c>
+      <c r="X15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16" t="s">
+        <v>49</v>
+      </c>
+      <c r="X16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ16">
+        <v>4</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <v>5</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{0f945650-ec40-41a9-9362-7e2addda4452}" enabled="1" method="Standard" siteId="{a33c6ac4-a52e-45c5-af07-b972df9bd004}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>
--- a/testdata/tasks.xlsx
+++ b/testdata/tasks.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goran/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D2C596-0BAC-4341-8506-2D54B983541C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9720D9-21EF-774A-92E6-A4C5B7EF4866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-74360" yWindow="-16280" windowWidth="66800" windowHeight="34460" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-72120" yWindow="-320" windowWidth="65820" windowHeight="21900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
-    <sheet name="Ctrl-Q task import 1" sheetId="4" r:id="rId2"/>
-    <sheet name="App import" sheetId="2" r:id="rId3"/>
-    <sheet name="1" sheetId="5" r:id="rId4"/>
-    <sheet name="2" sheetId="6" r:id="rId5"/>
-    <sheet name="3" sheetId="7" r:id="rId6"/>
-    <sheet name="4" sheetId="8" r:id="rId7"/>
-    <sheet name="5" sheetId="10" r:id="rId8"/>
+    <sheet name="Ctrl-Q task import 1" sheetId="4" r:id="rId1"/>
+    <sheet name="App import" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="5" r:id="rId3"/>
+    <sheet name="2" sheetId="6" r:id="rId4"/>
+    <sheet name="3" sheetId="7" r:id="rId5"/>
+    <sheet name="4" sheetId="8" r:id="rId6"/>
+    <sheet name="5" sheetId="10" r:id="rId7"/>
+    <sheet name="6" sheetId="11" r:id="rId8"/>
+    <sheet name="7" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="158">
   <si>
     <t>Task counter</t>
   </si>
@@ -474,6 +475,33 @@
   </si>
   <si>
     <t>64adb77b-7a14-43c3-b4e0-50f65fffb6e8</t>
+  </si>
+  <si>
+    <t>External program</t>
+  </si>
+  <si>
+    <t>Ext task 1</t>
+  </si>
+  <si>
+    <t>newtask-4</t>
+  </si>
+  <si>
+    <t>Ext program path</t>
+  </si>
+  <si>
+    <t>Ext program parameters</t>
+  </si>
+  <si>
+    <t>C:\Windows\System32\WindowsPowerShell\v1.0\powershell.exe</t>
+  </si>
+  <si>
+    <t>-File \\pro2-win1\c$\tools\script\ext_task_1.ps1</t>
+  </si>
+  <si>
+    <t>2 Trigger when upstream tasks are done</t>
+  </si>
+  <si>
+    <t>Ext task 2</t>
   </si>
 </sst>
 </file>
@@ -496,12 +524,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -516,9 +562,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,18 +908,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD0D760-10FF-BA4F-AB26-1BB266CCEB6A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1908950-014B-5543-A83E-C294E0CD8CA9}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AM16"/>
@@ -2808,7 +2847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB302AA-7244-6143-A82A-1F338369BBC6}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L11"/>
@@ -3128,7 +3167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B3D623-F84A-2E4B-97AC-9C3D405A1CC3}">
   <dimension ref="A1:AM7"/>
   <sheetViews>
@@ -3136,7 +3175,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="AH4" sqref="AH4:AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3996,7 +4035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB65219D-BA26-3A45-BDDD-F865E7A32AFB}">
   <dimension ref="A1:AM8"/>
   <sheetViews>
@@ -4882,15 +4921,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFFD7D0-6C13-E947-A31C-CAB830B654CA}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18:H19"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5958,7 +5997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F300BD48-681D-124A-9603-205FB7A8DFED}">
   <dimension ref="A1:AM16"/>
   <sheetViews>
@@ -7877,21 +7916,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CF1CBD-824B-6B48-8B71-18CE0CEDD925}">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP21" sqref="AP21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="37" max="37" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7913,104 +7964,110 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8032,42 +8089,28 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="b">
+      <c r="J2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
       <c r="T2" t="s">
         <v>49</v>
       </c>
@@ -8128,8 +8171,14 @@
       <c r="AM2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8151,84 +8200,61 @@
       <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3">
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>50</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="U3" t="b">
+      <c r="W3" t="b">
         <v>0</v>
       </c>
-      <c r="V3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>49</v>
-      </c>
       <c r="AH3" t="s">
         <v>49</v>
       </c>
@@ -8247,8 +8273,14 @@
       <c r="AM3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8270,42 +8302,28 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="b">
+      <c r="J4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>48</v>
       </c>
-      <c r="R4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" t="s">
-        <v>49</v>
-      </c>
       <c r="T4" t="s">
         <v>49</v>
       </c>
@@ -8318,15 +8336,6 @@
       <c r="W4" t="s">
         <v>49</v>
       </c>
-      <c r="X4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>49</v>
-      </c>
       <c r="AA4" t="s">
         <v>49</v>
       </c>
@@ -8366,8 +8375,14 @@
       <c r="AM4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8389,84 +8404,61 @@
       <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5">
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>50</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>51</v>
       </c>
-      <c r="U5" t="b">
+      <c r="W5" t="b">
         <v>0</v>
       </c>
-      <c r="V5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W5" t="s">
-        <v>53</v>
-      </c>
-      <c r="X5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>55</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>58</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>59</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>60</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>61</v>
       </c>
-      <c r="AF5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>49</v>
-      </c>
       <c r="AH5" t="s">
         <v>49</v>
       </c>
@@ -8485,8 +8477,14 @@
       <c r="AM5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8508,84 +8506,61 @@
       <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6">
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6">
         <v>2</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>50</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>62</v>
       </c>
-      <c r="U6" t="b">
+      <c r="W6" t="b">
         <v>0</v>
       </c>
-      <c r="V6" t="s">
-        <v>63</v>
-      </c>
-      <c r="W6" t="s">
-        <v>63</v>
-      </c>
-      <c r="X6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>64</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>65</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>57</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>66</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>59</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>67</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>49</v>
-      </c>
       <c r="AH6" t="s">
         <v>49</v>
       </c>
@@ -8604,8 +8579,14 @@
       <c r="AM6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -8627,42 +8608,28 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J7" t="b">
+      <c r="J7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>74</v>
       </c>
-      <c r="R7" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" t="s">
-        <v>49</v>
-      </c>
       <c r="T7" t="s">
         <v>49</v>
       </c>
@@ -8675,15 +8642,6 @@
       <c r="W7" t="s">
         <v>49</v>
       </c>
-      <c r="X7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>49</v>
-      </c>
       <c r="AA7" t="s">
         <v>49</v>
       </c>
@@ -8723,8 +8681,14 @@
       <c r="AM7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -8746,36 +8710,22 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J8" t="b">
+      <c r="J8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>49</v>
-      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" t="s">
         <v>49</v>
       </c>
@@ -8794,15 +8744,6 @@
       <c r="W8" t="s">
         <v>49</v>
       </c>
-      <c r="X8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>49</v>
-      </c>
       <c r="AA8" t="s">
         <v>49</v>
       </c>
@@ -8842,8 +8783,14 @@
       <c r="AM8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -8865,42 +8812,28 @@
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J9" t="b">
+      <c r="J9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>85</v>
       </c>
-      <c r="R9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" t="s">
-        <v>49</v>
-      </c>
       <c r="T9" t="s">
         <v>49</v>
       </c>
@@ -8913,15 +8846,6 @@
       <c r="W9" t="s">
         <v>49</v>
       </c>
-      <c r="X9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>49</v>
-      </c>
       <c r="AA9" t="s">
         <v>49</v>
       </c>
@@ -8961,8 +8885,14 @@
       <c r="AM9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8984,84 +8914,71 @@
       <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="H10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10">
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10">
         <v>1</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>50</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>83</v>
       </c>
-      <c r="U10" t="b">
+      <c r="W10" t="b">
         <v>1</v>
       </c>
-      <c r="V10" t="s">
-        <v>94</v>
-      </c>
-      <c r="W10" t="s">
-        <v>94</v>
-      </c>
-      <c r="X10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="AA10" t="s">
         <v>84</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AB10" t="s">
         <v>65</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>57</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>95</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>59</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>60</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AG10" t="s">
         <v>61</v>
       </c>
-      <c r="AF10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>49</v>
-      </c>
       <c r="AH10" t="s">
         <v>49</v>
       </c>
@@ -9080,8 +8997,14 @@
       <c r="AM10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -9103,84 +9026,71 @@
       <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11">
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11">
         <v>2</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>50</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>96</v>
       </c>
-      <c r="U11" t="b">
+      <c r="W11" t="b">
         <v>0</v>
       </c>
-      <c r="V11" t="s">
-        <v>94</v>
-      </c>
-      <c r="W11" t="s">
-        <v>94</v>
-      </c>
-      <c r="X11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>97</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
         <v>98</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>57</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>99</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>59</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>60</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AG11" t="s">
         <v>61</v>
       </c>
-      <c r="AF11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>49</v>
-      </c>
       <c r="AH11" t="s">
         <v>49</v>
       </c>
@@ -9199,8 +9109,14 @@
       <c r="AM11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -9222,63 +9138,50 @@
       <c r="G12" t="s">
         <v>49</v>
       </c>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12">
+      <c r="H12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12">
         <v>3</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>79</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>100</v>
       </c>
-      <c r="U12" t="b">
+      <c r="W12" t="b">
         <v>0</v>
       </c>
-      <c r="V12" t="s">
-        <v>94</v>
-      </c>
-      <c r="W12" t="s">
-        <v>94</v>
-      </c>
-      <c r="X12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>49</v>
-      </c>
       <c r="AA12" t="s">
         <v>49</v>
       </c>
@@ -9294,23 +9197,23 @@
       <c r="AE12" t="s">
         <v>49</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>360</v>
+      <c r="AF12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>49</v>
       </c>
       <c r="AH12">
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>360</v>
+      </c>
+      <c r="AJ12">
         <v>0</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>49</v>
+      <c r="AK12">
+        <v>0</v>
       </c>
       <c r="AL12" t="s">
         <v>49</v>
@@ -9318,8 +9221,14 @@
       <c r="AM12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9341,45 +9250,41 @@
       <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="H13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13">
+      <c r="H13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13">
         <v>3</v>
       </c>
-      <c r="S13" t="s">
-        <v>49</v>
-      </c>
-      <c r="T13" t="s">
-        <v>49</v>
-      </c>
       <c r="U13" t="s">
         <v>49</v>
       </c>
@@ -9389,15 +9294,6 @@
       <c r="W13" t="s">
         <v>49</v>
       </c>
-      <c r="X13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>49</v>
-      </c>
       <c r="AA13" t="s">
         <v>49</v>
       </c>
@@ -9425,20 +9321,26 @@
       <c r="AI13" t="s">
         <v>49</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL13">
         <v>1</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AM13" t="s">
         <v>80</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AN13" t="s">
         <v>40</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AO13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -9460,45 +9362,41 @@
       <c r="G14" t="s">
         <v>49</v>
       </c>
-      <c r="H14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14">
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="S14" t="s">
-        <v>49</v>
-      </c>
-      <c r="T14" t="s">
-        <v>49</v>
-      </c>
       <c r="U14" t="s">
         <v>49</v>
       </c>
@@ -9508,15 +9406,6 @@
       <c r="W14" t="s">
         <v>49</v>
       </c>
-      <c r="X14" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>49</v>
-      </c>
       <c r="AA14" t="s">
         <v>49</v>
       </c>
@@ -9544,20 +9433,26 @@
       <c r="AI14" t="s">
         <v>49</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL14">
         <v>2</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AM14" t="s">
         <v>86</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AN14" t="s">
         <v>81</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AO14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -9579,45 +9474,41 @@
       <c r="G15" t="s">
         <v>49</v>
       </c>
-      <c r="H15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15">
+      <c r="H15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="S15" t="s">
-        <v>49</v>
-      </c>
-      <c r="T15" t="s">
-        <v>49</v>
-      </c>
       <c r="U15" t="s">
         <v>49</v>
       </c>
@@ -9627,15 +9518,6 @@
       <c r="W15" t="s">
         <v>49</v>
       </c>
-      <c r="X15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>49</v>
-      </c>
       <c r="AA15" t="s">
         <v>49</v>
       </c>
@@ -9663,20 +9545,26 @@
       <c r="AI15" t="s">
         <v>49</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL15">
         <v>3</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AM15" t="s">
         <v>80</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AN15" t="s">
         <v>122</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AO15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -9698,45 +9586,41 @@
       <c r="G16" t="s">
         <v>49</v>
       </c>
-      <c r="H16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16">
+      <c r="H16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16">
         <v>3</v>
       </c>
-      <c r="S16" t="s">
-        <v>49</v>
-      </c>
-      <c r="T16" t="s">
-        <v>49</v>
-      </c>
       <c r="U16" t="s">
         <v>49</v>
       </c>
@@ -9746,15 +9630,6 @@
       <c r="W16" t="s">
         <v>49</v>
       </c>
-      <c r="X16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>49</v>
-      </c>
       <c r="AA16" t="s">
         <v>49</v>
       </c>
@@ -9782,41 +9657,3935 @@
       <c r="AI16" t="s">
         <v>49</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL16">
         <v>4</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AM16" t="s">
         <v>80</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AN16" t="s">
         <v>123</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AO16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="R17">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="T17">
         <v>3</v>
       </c>
-      <c r="AJ17">
+      <c r="AL17">
         <v>5</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AM17" t="s">
         <v>80</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AN17" t="s">
         <v>147</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AO17" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1440</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R18" t="s">
+        <v>93</v>
+      </c>
+      <c r="S18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" t="s">
+        <v>62</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" t="s">
+        <v>49</v>
+      </c>
+      <c r="S20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20" t="s">
+        <v>79</v>
+      </c>
+      <c r="V20" t="s">
+        <v>156</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>360</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" t="s">
+        <v>49</v>
+      </c>
+      <c r="S21" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" t="s">
+        <v>49</v>
+      </c>
+      <c r="W21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22" t="s">
+        <v>49</v>
+      </c>
+      <c r="V22" t="s">
+        <v>49</v>
+      </c>
+      <c r="W22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL22">
+        <v>2</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" t="s">
+        <v>49</v>
+      </c>
+      <c r="S23" t="s">
+        <v>49</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23" t="s">
+        <v>49</v>
+      </c>
+      <c r="V23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL23">
+        <v>3</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24" t="s">
+        <v>49</v>
+      </c>
+      <c r="V24" t="s">
+        <v>49</v>
+      </c>
+      <c r="W24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL24">
+        <v>4</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="AL25">
+        <v>5</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1440</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" t="s">
+        <v>49</v>
+      </c>
+      <c r="S27" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>50</v>
+      </c>
+      <c r="V27" t="s">
+        <v>62</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" t="s">
+        <v>49</v>
+      </c>
+      <c r="S28" t="s">
+        <v>49</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28" t="s">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s">
+        <v>156</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>360</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" t="s">
+        <v>49</v>
+      </c>
+      <c r="S29" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29" t="s">
+        <v>49</v>
+      </c>
+      <c r="V29" t="s">
+        <v>49</v>
+      </c>
+      <c r="W29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A57796-E40A-A74F-88BB-6FF9AB06A1DE}">
+  <dimension ref="A1:AO32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1440</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1440</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6" t="s">
+        <v>156</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>360</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32396ECA-26F6-704E-95D4-9DE892DEF026}">
+  <dimension ref="A1:AO32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1440</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1440</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6" t="s">
+        <v>156</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>360</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="H16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
